--- a/src/test/resources/Test_Data_automationPractice.xlsx
+++ b/src/test/resources/Test_Data_automationPractice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adelmostafa/Documents/BitPanda/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CD2748-6363-BC48-9394-B6B9CF761DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585AD6E9-01F4-AA4A-A1BF-165FEBCE29F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4600" yWindow="1580" windowWidth="28040" windowHeight="17440" activeTab="7" xr2:uid="{0F7B48E3-0925-5D44-99EA-C83C28227B0D}"/>
   </bookViews>
@@ -1131,12 +1131,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
